--- a/pidis/expdata/10019.xlsx
+++ b/pidis/expdata/10019.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jethier/Documents/fitpack/database/pdis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/pidis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F870965-65A7-3B45-81A6-B272DA322A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23320" windowHeight="13480" tabRatio="500"/>
+    <workbookView xWindow="35560" yWindow="5800" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>X</t>
   </si>
@@ -44,12 +54,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>A2(stat)_u</t>
-  </si>
-  <si>
-    <t>A2(syst)_u</t>
-  </si>
-  <si>
     <t>col</t>
   </si>
   <si>
@@ -60,13 +64,25 @@
   </si>
   <si>
     <t>SLAC(E142)</t>
+  </si>
+  <si>
+    <t>stat_u</t>
+  </si>
+  <si>
+    <t>syst_u</t>
+  </si>
+  <si>
+    <t>norm_c</t>
+  </si>
+  <si>
+    <t>syst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -86,6 +102,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -116,8 +138,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -128,6 +153,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -395,16 +423,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,223 +453,293 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="B2" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="26" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="B2" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="4">
+        <v>-0.1875</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3.44E-2</v>
+      </c>
+      <c r="H2" s="4">
+        <f>E2*0.031</f>
+        <v>-5.8125E-3</v>
+      </c>
+      <c r="I2" s="4">
+        <f>MAX(G2^2-H2^2,0)^0.5</f>
+        <v>3.3905380749226222E-2</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3">
-        <v>-0.1875</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.16830000000000001</v>
-      </c>
-      <c r="G2" s="3">
-        <v>3.44E-2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="26" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    </row>
+    <row r="3" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>0.34200000000000003</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.1002</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H9" si="0">E3*0.031</f>
+        <v>2.3435999999999999E-3</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I9" si="1">MAX(G3^2-H3^2,0)^0.5</f>
+        <v>3.462076745307649E-2</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3">
-        <v>7.5600000000000001E-2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.1002</v>
-      </c>
-      <c r="G3" s="3">
-        <v>3.4700000000000002E-2</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="26" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+    </row>
+    <row r="4" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>0.246</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>3.7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-3.49E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2.86E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.0819E-3</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="1"/>
+        <v>2.8579529254170722E-2</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-3.49E-2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>5.8500000000000003E-2</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2.86E-2</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+    </row>
+    <row r="5" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
         <v>0.17499999999999999</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>3.1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-8.8499999999999995E-2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.63E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.7434999999999998E-3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6156513677285054E-2</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-8.8499999999999995E-2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>5.5899999999999998E-2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2.63E-2</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="26" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+    </row>
+    <row r="6" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
         <v>0.124</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>2.5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-1.9300000000000001E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4.53E-2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.9830000000000007E-4</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1591712232011617E-2</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-1.9300000000000001E-2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>4.53E-2</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2.1600000000000001E-2</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="26" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+    </row>
+    <row r="7" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>1.8</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-1.5800000000000002E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.89E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.8980000000000009E-4</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="1"/>
+        <v>1.8893652266303622E-2</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-1.5800000000000002E-2</v>
-      </c>
-      <c r="F7" s="3">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1.89E-2</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="26" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    </row>
+    <row r="8" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
         <v>0.05</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>1.2</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>5.16E-2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>6.8820000000000003E-4</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6485641654482242E-2</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5.16E-2</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="26" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+    </row>
+    <row r="9" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-6.1899999999999997E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.9188999999999999E-3</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6790706441064354E-2</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3">
-        <v>-6.1899999999999997E-2</v>
-      </c>
-      <c r="F9" s="3">
-        <v>7.3800000000000004E-2</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
